--- a/data-raw/national_denominator.xlsx
+++ b/data-raw/national_denominator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Robinson/Afenet-projects/afenet-uganda/malariaRA/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759C1156-6F73-204B-8505-8172E7DCB5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC80B74-5A45-5345-A46E-6FC76826A424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14100" xr2:uid="{34179EBF-EA7A-454E-A815-C1EFFB15E6B7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="16000" xr2:uid="{34179EBF-EA7A-454E-A815-C1EFFB15E6B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,7 +422,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -465,28 +465,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
